--- a/src/data/groupings.xlsx
+++ b/src/data/groupings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">Category 1</t>
   </si>
@@ -146,33 +146,6 @@
   </si>
   <si>
     <t xml:space="preserve">them</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR stunt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public shaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">half assed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">got caught</t>
-  </si>
-  <si>
-    <t xml:space="preserve">half ass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">don’t buy it</t>
   </si>
 </sst>
 </file>
@@ -300,17 +273,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.87"/>
@@ -319,7 +292,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,56 +578,10 @@
       <c r="O15" s="0"/>
       <c r="P15" s="0"/>
     </row>
-    <row r="16" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I16" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I18" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I19" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I20" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I21" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
+    <row r="16" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
